--- a/設計書/日誌管理システム_データベース設計書.xlsx
+++ b/設計書/日誌管理システム_データベース設計書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himeno\Dropbox\教材データ\システム設計2019\02後期\04_総合演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/web/diary1801204/設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349B725-90CD-C94D-875D-054AA5127D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">クラス!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">学科!$A$1:$H$54</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
   <si>
     <t>No</t>
   </si>
@@ -1167,11 +1168,158 @@
     <t>20xx/xx/xx</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>学科</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教員</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌</t>
+    <rPh sb="0" eb="2">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌当番</t>
+    <rPh sb="0" eb="4">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生ログイン機能</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌操作選択機能</t>
+    <rPh sb="0" eb="8">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌登録機能</t>
+    <rPh sb="0" eb="1">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌削除機能</t>
+    <rPh sb="0" eb="6">
+      <t>ニッシス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌修正機能</t>
+    <rPh sb="0" eb="6">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教員ログイン機能</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント操作選択機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント登録・修正機能</t>
+    <rPh sb="0" eb="4">
+      <t>コメントトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント削除機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌当番登録機能</t>
+    <rPh sb="0" eb="8">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌当番一覧・修正機能</t>
+    <rPh sb="2" eb="3">
+      <t>ニッシトウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌閲覧機能</t>
+    <rPh sb="0" eb="6">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌検索機能</t>
+    <rPh sb="0" eb="6">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌ソート機能</t>
+    <rPh sb="0" eb="2">
+      <t>ニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R,U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -2588,6 +2736,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2636,18 +2814,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2675,33 +2844,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2720,108 +2862,114 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2830,6 +2978,30 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2839,30 +3011,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2876,11 +3024,11 @@
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準_Sheet1" xfId="4"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3"/>
-    <cellStyle name="標準_システム管理" xfId="2"/>
-    <cellStyle name="標準_種別マスタ" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
@@ -2921,7 +3069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2950,7 +3104,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3040,6 +3194,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3075,6 +3246,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3250,211 +3438,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
-    <col min="7" max="29" width="4.125" style="12" customWidth="1"/>
-    <col min="30" max="32" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
+    <col min="7" max="29" width="4.1640625" style="12" customWidth="1"/>
+    <col min="30" max="32" width="4.1640625" style="19" customWidth="1"/>
     <col min="33" max="36" width="4" style="12" customWidth="1"/>
     <col min="37" max="256" width="9" style="12"/>
-    <col min="257" max="288" width="4.125" style="12" customWidth="1"/>
+    <col min="257" max="288" width="4.1640625" style="12" customWidth="1"/>
     <col min="289" max="292" width="4" style="12" customWidth="1"/>
     <col min="293" max="512" width="9" style="12"/>
-    <col min="513" max="544" width="4.125" style="12" customWidth="1"/>
+    <col min="513" max="544" width="4.1640625" style="12" customWidth="1"/>
     <col min="545" max="548" width="4" style="12" customWidth="1"/>
     <col min="549" max="768" width="9" style="12"/>
-    <col min="769" max="800" width="4.125" style="12" customWidth="1"/>
+    <col min="769" max="800" width="4.1640625" style="12" customWidth="1"/>
     <col min="801" max="804" width="4" style="12" customWidth="1"/>
     <col min="805" max="1024" width="9" style="12"/>
-    <col min="1025" max="1056" width="4.125" style="12" customWidth="1"/>
+    <col min="1025" max="1056" width="4.1640625" style="12" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="12" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="12"/>
-    <col min="1281" max="1312" width="4.125" style="12" customWidth="1"/>
+    <col min="1281" max="1312" width="4.1640625" style="12" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="12" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="12"/>
-    <col min="1537" max="1568" width="4.125" style="12" customWidth="1"/>
+    <col min="1537" max="1568" width="4.1640625" style="12" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="12" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="12"/>
-    <col min="1793" max="1824" width="4.125" style="12" customWidth="1"/>
+    <col min="1793" max="1824" width="4.1640625" style="12" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="12" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="12"/>
-    <col min="2049" max="2080" width="4.125" style="12" customWidth="1"/>
+    <col min="2049" max="2080" width="4.1640625" style="12" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="12" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="12"/>
-    <col min="2305" max="2336" width="4.125" style="12" customWidth="1"/>
+    <col min="2305" max="2336" width="4.1640625" style="12" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="12" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="12"/>
-    <col min="2561" max="2592" width="4.125" style="12" customWidth="1"/>
+    <col min="2561" max="2592" width="4.1640625" style="12" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="12" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="12"/>
-    <col min="2817" max="2848" width="4.125" style="12" customWidth="1"/>
+    <col min="2817" max="2848" width="4.1640625" style="12" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="12" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="12"/>
-    <col min="3073" max="3104" width="4.125" style="12" customWidth="1"/>
+    <col min="3073" max="3104" width="4.1640625" style="12" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="12" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="12"/>
-    <col min="3329" max="3360" width="4.125" style="12" customWidth="1"/>
+    <col min="3329" max="3360" width="4.1640625" style="12" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="12" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="12"/>
-    <col min="3585" max="3616" width="4.125" style="12" customWidth="1"/>
+    <col min="3585" max="3616" width="4.1640625" style="12" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="12" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="12"/>
-    <col min="3841" max="3872" width="4.125" style="12" customWidth="1"/>
+    <col min="3841" max="3872" width="4.1640625" style="12" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="12" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="12"/>
-    <col min="4097" max="4128" width="4.125" style="12" customWidth="1"/>
+    <col min="4097" max="4128" width="4.1640625" style="12" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="12" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="12"/>
-    <col min="4353" max="4384" width="4.125" style="12" customWidth="1"/>
+    <col min="4353" max="4384" width="4.1640625" style="12" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="12" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="12"/>
-    <col min="4609" max="4640" width="4.125" style="12" customWidth="1"/>
+    <col min="4609" max="4640" width="4.1640625" style="12" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="12" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="12"/>
-    <col min="4865" max="4896" width="4.125" style="12" customWidth="1"/>
+    <col min="4865" max="4896" width="4.1640625" style="12" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="12" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="12"/>
-    <col min="5121" max="5152" width="4.125" style="12" customWidth="1"/>
+    <col min="5121" max="5152" width="4.1640625" style="12" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="12" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="12"/>
-    <col min="5377" max="5408" width="4.125" style="12" customWidth="1"/>
+    <col min="5377" max="5408" width="4.1640625" style="12" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="12" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="12"/>
-    <col min="5633" max="5664" width="4.125" style="12" customWidth="1"/>
+    <col min="5633" max="5664" width="4.1640625" style="12" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="12" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="12"/>
-    <col min="5889" max="5920" width="4.125" style="12" customWidth="1"/>
+    <col min="5889" max="5920" width="4.1640625" style="12" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="12" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="12"/>
-    <col min="6145" max="6176" width="4.125" style="12" customWidth="1"/>
+    <col min="6145" max="6176" width="4.1640625" style="12" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="12" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="12"/>
-    <col min="6401" max="6432" width="4.125" style="12" customWidth="1"/>
+    <col min="6401" max="6432" width="4.1640625" style="12" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="12" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="12"/>
-    <col min="6657" max="6688" width="4.125" style="12" customWidth="1"/>
+    <col min="6657" max="6688" width="4.1640625" style="12" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="12" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="12"/>
-    <col min="6913" max="6944" width="4.125" style="12" customWidth="1"/>
+    <col min="6913" max="6944" width="4.1640625" style="12" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="12" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="12"/>
-    <col min="7169" max="7200" width="4.125" style="12" customWidth="1"/>
+    <col min="7169" max="7200" width="4.1640625" style="12" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="12" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="12"/>
-    <col min="7425" max="7456" width="4.125" style="12" customWidth="1"/>
+    <col min="7425" max="7456" width="4.1640625" style="12" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="12" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="12"/>
-    <col min="7681" max="7712" width="4.125" style="12" customWidth="1"/>
+    <col min="7681" max="7712" width="4.1640625" style="12" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="12" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="12"/>
-    <col min="7937" max="7968" width="4.125" style="12" customWidth="1"/>
+    <col min="7937" max="7968" width="4.1640625" style="12" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="12" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="12"/>
-    <col min="8193" max="8224" width="4.125" style="12" customWidth="1"/>
+    <col min="8193" max="8224" width="4.1640625" style="12" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="12" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="12"/>
-    <col min="8449" max="8480" width="4.125" style="12" customWidth="1"/>
+    <col min="8449" max="8480" width="4.1640625" style="12" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="12" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="12"/>
-    <col min="8705" max="8736" width="4.125" style="12" customWidth="1"/>
+    <col min="8705" max="8736" width="4.1640625" style="12" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="12" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="12"/>
-    <col min="8961" max="8992" width="4.125" style="12" customWidth="1"/>
+    <col min="8961" max="8992" width="4.1640625" style="12" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="12" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="12"/>
-    <col min="9217" max="9248" width="4.125" style="12" customWidth="1"/>
+    <col min="9217" max="9248" width="4.1640625" style="12" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="12" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="12"/>
-    <col min="9473" max="9504" width="4.125" style="12" customWidth="1"/>
+    <col min="9473" max="9504" width="4.1640625" style="12" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="12" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="12"/>
-    <col min="9729" max="9760" width="4.125" style="12" customWidth="1"/>
+    <col min="9729" max="9760" width="4.1640625" style="12" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="12" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="12"/>
-    <col min="9985" max="10016" width="4.125" style="12" customWidth="1"/>
+    <col min="9985" max="10016" width="4.1640625" style="12" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="12" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="12"/>
-    <col min="10241" max="10272" width="4.125" style="12" customWidth="1"/>
+    <col min="10241" max="10272" width="4.1640625" style="12" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="12" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="12"/>
-    <col min="10497" max="10528" width="4.125" style="12" customWidth="1"/>
+    <col min="10497" max="10528" width="4.1640625" style="12" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="12" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="12"/>
-    <col min="10753" max="10784" width="4.125" style="12" customWidth="1"/>
+    <col min="10753" max="10784" width="4.1640625" style="12" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="12" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="12"/>
-    <col min="11009" max="11040" width="4.125" style="12" customWidth="1"/>
+    <col min="11009" max="11040" width="4.1640625" style="12" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="12" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="12"/>
-    <col min="11265" max="11296" width="4.125" style="12" customWidth="1"/>
+    <col min="11265" max="11296" width="4.1640625" style="12" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="12" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="12"/>
-    <col min="11521" max="11552" width="4.125" style="12" customWidth="1"/>
+    <col min="11521" max="11552" width="4.1640625" style="12" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="12" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="12"/>
-    <col min="11777" max="11808" width="4.125" style="12" customWidth="1"/>
+    <col min="11777" max="11808" width="4.1640625" style="12" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="12" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="12"/>
-    <col min="12033" max="12064" width="4.125" style="12" customWidth="1"/>
+    <col min="12033" max="12064" width="4.1640625" style="12" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="12" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="12"/>
-    <col min="12289" max="12320" width="4.125" style="12" customWidth="1"/>
+    <col min="12289" max="12320" width="4.1640625" style="12" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="12" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="12"/>
-    <col min="12545" max="12576" width="4.125" style="12" customWidth="1"/>
+    <col min="12545" max="12576" width="4.1640625" style="12" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="12" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="12"/>
-    <col min="12801" max="12832" width="4.125" style="12" customWidth="1"/>
+    <col min="12801" max="12832" width="4.1640625" style="12" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="12" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="12"/>
-    <col min="13057" max="13088" width="4.125" style="12" customWidth="1"/>
+    <col min="13057" max="13088" width="4.1640625" style="12" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="12" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="12"/>
-    <col min="13313" max="13344" width="4.125" style="12" customWidth="1"/>
+    <col min="13313" max="13344" width="4.1640625" style="12" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="12" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="12"/>
-    <col min="13569" max="13600" width="4.125" style="12" customWidth="1"/>
+    <col min="13569" max="13600" width="4.1640625" style="12" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="12" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="12"/>
-    <col min="13825" max="13856" width="4.125" style="12" customWidth="1"/>
+    <col min="13825" max="13856" width="4.1640625" style="12" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="12" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="12"/>
-    <col min="14081" max="14112" width="4.125" style="12" customWidth="1"/>
+    <col min="14081" max="14112" width="4.1640625" style="12" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="12" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="12"/>
-    <col min="14337" max="14368" width="4.125" style="12" customWidth="1"/>
+    <col min="14337" max="14368" width="4.1640625" style="12" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="12" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="12"/>
-    <col min="14593" max="14624" width="4.125" style="12" customWidth="1"/>
+    <col min="14593" max="14624" width="4.1640625" style="12" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="12" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="12"/>
-    <col min="14849" max="14880" width="4.125" style="12" customWidth="1"/>
+    <col min="14849" max="14880" width="4.1640625" style="12" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="12" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="12"/>
-    <col min="15105" max="15136" width="4.125" style="12" customWidth="1"/>
+    <col min="15105" max="15136" width="4.1640625" style="12" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="12" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="12"/>
-    <col min="15361" max="15392" width="4.125" style="12" customWidth="1"/>
+    <col min="15361" max="15392" width="4.1640625" style="12" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="12" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="12"/>
-    <col min="15617" max="15648" width="4.125" style="12" customWidth="1"/>
+    <col min="15617" max="15648" width="4.1640625" style="12" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="12" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="12"/>
-    <col min="15873" max="15904" width="4.125" style="12" customWidth="1"/>
+    <col min="15873" max="15904" width="4.1640625" style="12" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="12" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="12"/>
-    <col min="16129" max="16160" width="4.125" style="12" customWidth="1"/>
+    <col min="16129" max="16160" width="4.1640625" style="12" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="12" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="12"/>
   </cols>
@@ -3692,21 +3880,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="172" t="s">
+      <c r="U3" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="173"/>
-      <c r="W3" s="174" t="s">
+      <c r="V3" s="158"/>
+      <c r="W3" s="182" t="s">
         <v>164</v>
       </c>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="173"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="158"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3819,20 +4007,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -3850,82 +4038,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="166" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="168"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="178"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="156" t="s">
+      <c r="W8" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="156" t="s">
+      <c r="X8" s="166"/>
+      <c r="Y8" s="166"/>
+      <c r="Z8" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156" t="s">
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="166"/>
+      <c r="AC8" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="156"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="166"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="171"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="181"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="176" t="s">
+      <c r="W9" s="183"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="178"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3951,15 +4139,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="179"/>
-      <c r="AD10" s="180"/>
-      <c r="AE10" s="181"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3985,15 +4173,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="180"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="180"/>
-      <c r="AB11" s="181"/>
-      <c r="AC11" s="179"/>
-      <c r="AD11" s="180"/>
-      <c r="AE11" s="181"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4019,15 +4207,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4126,106 +4314,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="165"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="165"/>
+      <c r="AD17" s="165"/>
+      <c r="AE17" s="165"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="185"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4368,392 +4556,392 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="172" t="s">
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="172" t="s">
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="175"/>
-      <c r="X23" s="175"/>
-      <c r="Y23" s="175"/>
-      <c r="Z23" s="175"/>
-      <c r="AA23" s="175"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="172" t="s">
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="157"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="157"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="175"/>
-      <c r="AE23" s="173"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="158"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="156" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="186" t="s">
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189" t="s">
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="190"/>
-      <c r="P24" s="190"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="191"/>
-      <c r="AC24" s="172" t="s">
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="AD24" s="175"/>
-      <c r="AE24" s="173"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="158"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="190"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="190"/>
-      <c r="Q25" s="190"/>
-      <c r="R25" s="190"/>
-      <c r="S25" s="190"/>
-      <c r="T25" s="190"/>
-      <c r="U25" s="190"/>
-      <c r="V25" s="190"/>
-      <c r="W25" s="190"/>
-      <c r="X25" s="190"/>
-      <c r="Y25" s="190"/>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="190"/>
-      <c r="AB25" s="191"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="173"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="163"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="158"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="190"/>
-      <c r="T26" s="190"/>
-      <c r="U26" s="190"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="191"/>
-      <c r="AC26" s="172"/>
-      <c r="AD26" s="175"/>
-      <c r="AE26" s="173"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="163"/>
+      <c r="AA26" s="163"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="158"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="190"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="190"/>
-      <c r="R27" s="190"/>
-      <c r="S27" s="190"/>
-      <c r="T27" s="190"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="191"/>
-      <c r="AC27" s="172"/>
-      <c r="AD27" s="175"/>
-      <c r="AE27" s="173"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="157"/>
+      <c r="AE27" s="158"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
-      <c r="U28" s="190"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="191"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="175"/>
-      <c r="AE28" s="173"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="163"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="163"/>
+      <c r="AA28" s="163"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="158"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="190"/>
-      <c r="AB29" s="191"/>
-      <c r="AC29" s="172"/>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="173"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="158"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="190"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="190"/>
-      <c r="Q30" s="190"/>
-      <c r="R30" s="190"/>
-      <c r="S30" s="190"/>
-      <c r="T30" s="190"/>
-      <c r="U30" s="190"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="191"/>
-      <c r="AC30" s="172"/>
-      <c r="AD30" s="175"/>
-      <c r="AE30" s="173"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="163"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="158"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="190"/>
-      <c r="R31" s="190"/>
-      <c r="S31" s="190"/>
-      <c r="T31" s="190"/>
-      <c r="U31" s="190"/>
-      <c r="V31" s="190"/>
-      <c r="W31" s="190"/>
-      <c r="X31" s="190"/>
-      <c r="Y31" s="190"/>
-      <c r="Z31" s="190"/>
-      <c r="AA31" s="190"/>
-      <c r="AB31" s="191"/>
-      <c r="AC31" s="172"/>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="173"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="163"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="163"/>
+      <c r="AA31" s="163"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="158"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
-      <c r="P32" s="190"/>
-      <c r="Q32" s="190"/>
-      <c r="R32" s="190"/>
-      <c r="S32" s="190"/>
-      <c r="T32" s="190"/>
-      <c r="U32" s="190"/>
-      <c r="V32" s="190"/>
-      <c r="W32" s="190"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="191"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="175"/>
-      <c r="AE32" s="173"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="158"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="190"/>
-      <c r="Q33" s="190"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="191"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="175"/>
-      <c r="AE33" s="173"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="163"/>
+      <c r="S33" s="163"/>
+      <c r="T33" s="163"/>
+      <c r="U33" s="163"/>
+      <c r="V33" s="163"/>
+      <c r="W33" s="163"/>
+      <c r="X33" s="163"/>
+      <c r="Y33" s="163"/>
+      <c r="Z33" s="163"/>
+      <c r="AA33" s="163"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="158"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4792,51 +4980,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4848,6 +4991,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4865,7 +5053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4875,18 +5063,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="146" t="s">
         <v>176</v>
       </c>
@@ -4897,10 +5085,10 @@
       <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="37" t="s">
         <v>174</v>
       </c>
@@ -4913,10 +5101,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="193"/>
+      <c r="B3" s="199"/>
       <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
@@ -4929,10 +5117,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="193"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="37" t="s">
         <v>178</v>
       </c>
@@ -4945,10 +5133,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="193"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="41" t="s">
         <v>24</v>
       </c>
@@ -4959,10 +5147,10 @@
       <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="193"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="37" t="s">
         <v>54</v>
       </c>
@@ -5003,10 +5191,10 @@
       <c r="D9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="198" t="s">
+      <c r="E9" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="199"/>
+      <c r="F9" s="197"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="76">
@@ -5021,10 +5209,10 @@
       <c r="D10" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="194" t="s">
+      <c r="E10" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="195"/>
+      <c r="F10" s="193"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="76">
@@ -5039,10 +5227,10 @@
       <c r="D11" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="194" t="s">
+      <c r="E11" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="195"/>
+      <c r="F11" s="193"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="76">
@@ -5057,10 +5245,10 @@
       <c r="D12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="195"/>
+      <c r="F12" s="193"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="76">
@@ -5075,10 +5263,10 @@
       <c r="D13" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="194" t="s">
+      <c r="E13" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="195"/>
+      <c r="F13" s="193"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="76">
@@ -5093,34 +5281,34 @@
       <c r="D14" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="195"/>
+      <c r="F14" s="193"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="195"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="197"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="197"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="195"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -5582,6 +5770,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5591,11 +5784,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5610,7 +5798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5620,17 +5808,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
         <v>177</v>
       </c>
@@ -5715,42 +5903,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="226"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -5771,10 +5959,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -5795,10 +5983,10 @@
       <c r="B11" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="80" t="s">
         <v>184</v>
       </c>
@@ -5817,10 +6005,10 @@
       <c r="B12" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="85" t="s">
         <v>157</v>
       </c>
@@ -5833,8 +6021,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="222"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="201"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -5843,8 +6031,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="201"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -5853,8 +6041,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -5863,8 +6051,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -5873,8 +6061,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="222"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -5883,8 +6071,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -5893,8 +6081,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -5903,8 +6091,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -5913,8 +6101,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -5923,8 +6111,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -5933,8 +6121,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -5943,8 +6131,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -5953,8 +6141,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -5963,8 +6151,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -5973,8 +6161,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -5983,8 +6171,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -5993,8 +6181,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -6003,8 +6191,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -6036,10 +6224,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -6054,51 +6242,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="210"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -6131,15 +6319,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="211" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -6147,51 +6335,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="200"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="202"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="210"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="205"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="212"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="205"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6223,15 +6411,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="228" t="s">
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -6241,15 +6429,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="225" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="216"/>
       <c r="H50" s="117" t="s">
         <v>85</v>
       </c>
@@ -6257,56 +6445,77 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="205"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="205"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="212"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="205"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -6323,38 +6532,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6368,7 +6556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6378,17 +6566,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
         <v>177</v>
       </c>
@@ -6473,42 +6661,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="226"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -6529,10 +6717,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -6653,8 +6841,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -6663,8 +6851,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="222"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -6673,8 +6861,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -6683,8 +6871,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -6693,8 +6881,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -6703,8 +6891,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -6713,8 +6901,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -6723,8 +6911,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -6733,8 +6921,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -6743,8 +6931,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -6753,8 +6941,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -6763,8 +6951,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -6773,8 +6961,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -6783,8 +6971,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -6793,8 +6981,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -6826,10 +7014,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -6844,51 +7032,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="210"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -6921,15 +7109,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="211" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -6939,15 +7127,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="215" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="225" t="s">
+      <c r="D42" s="222"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="226"/>
+      <c r="G42" s="216"/>
       <c r="H42" s="117" t="s">
         <v>103</v>
       </c>
@@ -6973,31 +7161,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="205"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7029,15 +7217,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="228" t="s">
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -7047,15 +7235,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="215" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="225" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="216"/>
       <c r="H50" s="117" t="s">
         <v>153</v>
       </c>
@@ -7063,73 +7251,58 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="205"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="205"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="212"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="205"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7143,19 +7316,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7169,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7179,17 +7367,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
         <v>177</v>
       </c>
@@ -7274,42 +7462,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="226"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -7330,10 +7518,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -7354,10 +7542,10 @@
       <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="80" t="s">
         <v>185</v>
       </c>
@@ -7376,10 +7564,10 @@
       <c r="B12" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="85" t="s">
         <v>161</v>
       </c>
@@ -7392,8 +7580,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="222"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="201"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -7402,8 +7590,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="201"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -7412,8 +7600,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -7422,8 +7610,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -7432,8 +7620,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="222"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -7442,8 +7630,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -7452,8 +7640,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -7462,8 +7650,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -7472,8 +7660,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -7482,8 +7670,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -7492,8 +7680,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -7502,8 +7690,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -7512,8 +7700,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -7522,8 +7710,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -7532,8 +7720,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -7542,8 +7730,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -7552,8 +7740,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -7562,8 +7750,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -7595,10 +7783,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -7613,51 +7801,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="210"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -7690,15 +7878,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="211" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -7706,51 +7894,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="200"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="202"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="210"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="205"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="212"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="205"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7782,15 +7970,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="228" t="s">
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -7800,15 +7988,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="225" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="216"/>
       <c r="H50" s="117" t="s">
         <v>115</v>
       </c>
@@ -7816,73 +8004,63 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="205"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="205"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="212"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="205"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7896,24 +8074,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7927,7 +8115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7937,17 +8125,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
         <v>177</v>
       </c>
@@ -8032,42 +8220,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="226"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -8088,10 +8276,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8112,10 +8300,10 @@
       <c r="B11" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="80" t="s">
         <v>187</v>
       </c>
@@ -8134,10 +8322,10 @@
       <c r="B12" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="85" t="s">
         <v>185</v>
       </c>
@@ -8192,8 +8380,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -8202,8 +8390,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -8212,8 +8400,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="222"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -8222,8 +8410,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -8232,8 +8420,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -8242,8 +8430,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -8252,8 +8440,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -8262,8 +8450,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -8272,8 +8460,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -8282,8 +8470,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -8292,8 +8480,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -8302,8 +8490,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -8312,8 +8500,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -8322,8 +8510,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -8332,8 +8520,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -8342,8 +8530,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -8375,10 +8563,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -8393,51 +8581,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="210"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -8470,15 +8658,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="211" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -8488,15 +8676,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="215" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="225" t="s">
+      <c r="D42" s="222"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="226"/>
+      <c r="G42" s="216"/>
       <c r="H42" s="117" t="s">
         <v>152</v>
       </c>
@@ -8504,41 +8692,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="205"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="212"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="205"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8570,15 +8758,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="228" t="s">
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -8588,15 +8776,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="226"/>
-      <c r="F50" s="225" t="s">
+      <c r="D50" s="222"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="216"/>
       <c r="H50" s="117" t="s">
         <v>130</v>
       </c>
@@ -8604,73 +8792,61 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="205"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="205"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="212"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="205"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8684,22 +8860,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8713,7 +8901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8723,17 +8911,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
         <v>177</v>
       </c>
@@ -8818,42 +9006,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="226"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -8874,10 +9062,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8898,10 +9086,10 @@
       <c r="B11" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="80" t="s">
         <v>185</v>
       </c>
@@ -9032,8 +9220,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -9042,8 +9230,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -9052,8 +9240,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -9062,8 +9250,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -9072,8 +9260,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -9082,8 +9270,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -9092,8 +9280,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -9102,8 +9290,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -9112,8 +9300,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -9122,8 +9310,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -9132,8 +9320,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -9142,8 +9330,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -9152,8 +9340,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="208"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -9185,10 +9373,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -9203,51 +9391,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="210"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="205"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -9280,15 +9468,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="211" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="208"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -9298,15 +9486,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="215" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="225" t="s">
+      <c r="D42" s="222"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="215" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="226"/>
+      <c r="G42" s="216"/>
       <c r="H42" s="117" t="s">
         <v>152</v>
       </c>
@@ -9332,31 +9520,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="212"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="205"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9388,15 +9576,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="211" t="s">
+      <c r="C49" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="228" t="s">
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="229"/>
+      <c r="G49" s="206"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -9404,83 +9592,67 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="98"/>
       <c r="B50" s="99"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="202"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="202"/>
+      <c r="C50" s="209"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="210"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="210"/>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="205"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="205"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="212"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="205"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="224"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9494,18 +9666,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9519,24 +9707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.125" customWidth="1"/>
+    <col min="3" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="152" t="s">
         <v>167</v>
       </c>
@@ -9573,10 +9761,10 @@
       <c r="K2" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="243" t="s">
+      <c r="L2" s="240" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="244"/>
+      <c r="M2" s="241"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="126" t="s">
@@ -9598,8 +9786,8 @@
       <c r="K3" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="243"/>
-      <c r="M3" s="244"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="241"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="122" t="s">
@@ -9619,10 +9807,10 @@
       <c r="K4" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="243" t="s">
+      <c r="L4" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="244"/>
+      <c r="M4" s="241"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -9698,14 +9886,14 @@
       <c r="D9" s="134"/>
       <c r="E9" s="134"/>
       <c r="F9" s="135"/>
-      <c r="G9" s="245" t="s">
+      <c r="G9" s="242" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="247"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="244"/>
       <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -9715,26 +9903,42 @@
       <c r="D10" s="136"/>
       <c r="E10" s="136"/>
       <c r="F10" s="137"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
+      <c r="G10" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="139" t="s">
+        <v>194</v>
+      </c>
       <c r="M10" s="133"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="131"/>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="245" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="242"/>
+      <c r="C11" s="237" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="239"/>
       <c r="G11" s="139"/>
       <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="I11" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="J11" s="139"/>
       <c r="K11" s="139"/>
       <c r="L11" s="139"/>
@@ -9742,158 +9946,206 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="131"/>
-      <c r="B12" s="238"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="242"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="237" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="239"/>
       <c r="G12" s="139"/>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
       <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
+      <c r="K12" s="139" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="M12" s="133"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="131"/>
-      <c r="B13" s="238"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="242"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="239"/>
       <c r="G13" s="139"/>
       <c r="H13" s="139"/>
       <c r="I13" s="139"/>
       <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
+      <c r="K13" s="139" t="s">
+        <v>210</v>
+      </c>
       <c r="L13" s="139"/>
       <c r="M13" s="133"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="131"/>
-      <c r="B14" s="238"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="242"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="237" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="239"/>
       <c r="G14" s="139"/>
       <c r="H14" s="139"/>
       <c r="I14" s="139"/>
       <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
+      <c r="K14" s="139" t="s">
+        <v>213</v>
+      </c>
       <c r="L14" s="139"/>
       <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="131"/>
-      <c r="B15" s="238"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="242"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="237" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="239"/>
       <c r="G15" s="139"/>
       <c r="H15" s="139"/>
       <c r="I15" s="139"/>
       <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
+      <c r="K15" s="139" t="s">
+        <v>212</v>
+      </c>
       <c r="L15" s="139"/>
       <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="131"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="237" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
+      <c r="J16" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="K16" s="139"/>
       <c r="L16" s="139"/>
       <c r="M16" s="133"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="131"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="242"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="237" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="239"/>
       <c r="G17" s="139"/>
       <c r="H17" s="139"/>
       <c r="I17" s="139"/>
       <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
+      <c r="K17" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="L17" s="139"/>
       <c r="M17" s="133"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="131"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="242"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="237" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
       <c r="G18" s="139"/>
       <c r="H18" s="139"/>
       <c r="I18" s="139"/>
       <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
+      <c r="K18" s="139" t="s">
+        <v>212</v>
+      </c>
       <c r="L18" s="139"/>
       <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="242"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="237" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="239"/>
       <c r="G19" s="139"/>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
       <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
+      <c r="K19" s="139" t="s">
+        <v>212</v>
+      </c>
       <c r="L19" s="139"/>
       <c r="M19" s="133"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="131"/>
-      <c r="B20" s="238"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="242"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="237" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="239"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
       <c r="I20" s="139"/>
       <c r="J20" s="139"/>
       <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
+      <c r="L20" s="139" t="s">
+        <v>210</v>
+      </c>
       <c r="M20" s="133"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="131"/>
-      <c r="B21" s="238"/>
-      <c r="C21" s="240"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="242"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="139"/>
       <c r="H21" s="139"/>
       <c r="I21" s="139"/>
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
+      <c r="L21" s="139" t="s">
+        <v>211</v>
+      </c>
       <c r="M21" s="133"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="131"/>
-      <c r="B22" s="238"/>
-      <c r="C22" s="140"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="140" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" s="153"/>
       <c r="E22" s="153"/>
       <c r="F22" s="141"/>
@@ -9901,14 +10153,18 @@
       <c r="H22" s="139"/>
       <c r="I22" s="139"/>
       <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
+      <c r="K22" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="L22" s="139"/>
       <c r="M22" s="133"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="131"/>
-      <c r="B23" s="238"/>
-      <c r="C23" s="140"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="140" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" s="153"/>
       <c r="E23" s="153"/>
       <c r="F23" s="141"/>
@@ -9916,14 +10172,18 @@
       <c r="H23" s="139"/>
       <c r="I23" s="139"/>
       <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
+      <c r="K23" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="L23" s="139"/>
       <c r="M23" s="133"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="131"/>
-      <c r="B24" s="238"/>
-      <c r="C24" s="140"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="140" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="153"/>
       <c r="E24" s="153"/>
       <c r="F24" s="141"/>
@@ -9931,13 +10191,15 @@
       <c r="H24" s="139"/>
       <c r="I24" s="139"/>
       <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
+      <c r="K24" s="139" t="s">
+        <v>209</v>
+      </c>
       <c r="L24" s="139"/>
       <c r="M24" s="133"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="131"/>
-      <c r="B25" s="238"/>
+      <c r="B25" s="246"/>
       <c r="C25" s="140"/>
       <c r="D25" s="153"/>
       <c r="E25" s="153"/>
@@ -9952,7 +10214,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="131"/>
-      <c r="B26" s="238"/>
+      <c r="B26" s="246"/>
       <c r="C26" s="140"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -9967,7 +10229,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="131"/>
-      <c r="B27" s="238"/>
+      <c r="B27" s="246"/>
       <c r="C27" s="140"/>
       <c r="D27" s="153"/>
       <c r="E27" s="153"/>
@@ -9982,7 +10244,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="131"/>
-      <c r="B28" s="238"/>
+      <c r="B28" s="246"/>
       <c r="C28" s="140"/>
       <c r="D28" s="153"/>
       <c r="E28" s="153"/>
@@ -9997,7 +10259,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="131"/>
-      <c r="B29" s="238"/>
+      <c r="B29" s="246"/>
       <c r="C29" s="140"/>
       <c r="D29" s="153"/>
       <c r="E29" s="153"/>
@@ -10012,7 +10274,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="131"/>
-      <c r="B30" s="238"/>
+      <c r="B30" s="246"/>
       <c r="C30" s="140"/>
       <c r="D30" s="153"/>
       <c r="E30" s="153"/>
@@ -10027,11 +10289,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="141"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="239"/>
       <c r="G31" s="139"/>
       <c r="H31" s="139"/>
       <c r="I31" s="139"/>
@@ -10042,11 +10304,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="131"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="240"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="242"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="239"/>
       <c r="G32" s="139"/>
       <c r="H32" s="139"/>
       <c r="I32" s="139"/>
@@ -10055,13 +10317,13 @@
       <c r="L32" s="139"/>
       <c r="M32" s="133"/>
     </row>
-    <row r="33" spans="1:13" ht="22.5" customHeight="1">
+    <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="131"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="242"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="239"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
       <c r="I33" s="139"/>
@@ -10072,11 +10334,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="131"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="240"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="242"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="239"/>
       <c r="G34" s="139"/>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
@@ -10087,11 +10349,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="240"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="242"/>
+      <c r="B35" s="247"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="239"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
       <c r="I35" s="139"/>
@@ -10100,59 +10362,39 @@
       <c r="L35" s="139"/>
       <c r="M35" s="133"/>
     </row>
-    <row r="36" spans="1:13" ht="23.25" customHeight="1">
+    <row r="36" spans="1:13">
       <c r="A36" s="131"/>
-      <c r="B36" s="239"/>
-      <c r="C36" s="240"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
       <c r="M36" s="133"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="133"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="142"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="144"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="144"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="B11:B36"/>
+  <mergeCells count="20">
+    <mergeCell ref="B11:B35"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -10160,14 +10402,18 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/日誌管理システム_データベース設計書.xlsx
+++ b/設計書/日誌管理システム_データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/web/diary1801204/設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349B725-90CD-C94D-875D-054AA5127D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F781B-771F-3745-A47C-D98207B36CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -20,16 +20,18 @@
     <sheet name="担任" sheetId="15" r:id="rId5"/>
     <sheet name="学生" sheetId="16" r:id="rId6"/>
     <sheet name="日誌" sheetId="17" r:id="rId7"/>
-    <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
+    <sheet name="日誌当番" sheetId="19" r:id="rId8"/>
+    <sheet name="CRUD図 " sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$M$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'CRUD図 '!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">クラス!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">学科!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">学生!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">担任!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">日誌!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">日誌当番!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="224">
   <si>
     <t>No</t>
   </si>
@@ -1313,6 +1315,79 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diary_duty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　クラス日誌当番を定義</t>
+    <rPh sb="1" eb="2">
+      <t>クラスニッセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日誌当番</t>
+    <rPh sb="0" eb="2">
+      <t>ニッs</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウバn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス日誌当番情報を記録・管理するテーブル</t>
+    <rPh sb="3" eb="10">
+      <t>ニッs</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キロk</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>キロk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学籍番号</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PK FK2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学籍番号(student_id)</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生(student)</t>
+    <rPh sb="0" eb="1">
+      <t>ガクセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2321,7 +2396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2736,13 +2811,124 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2763,86 +2949,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2862,10 +2973,67 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2874,9 +3042,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2886,90 +3075,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2978,6 +3083,15 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3003,14 +3117,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3104,7 +3215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3880,21 +3991,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="156" t="s">
+      <c r="U3" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="158"/>
-      <c r="W3" s="182" t="s">
+      <c r="V3" s="183"/>
+      <c r="W3" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="158"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="183"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4103,17 +4214,17 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="183" t="s">
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4139,15 +4250,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="191"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4173,15 +4284,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="191"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4207,15 +4318,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4314,106 +4425,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="165"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="195"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="165"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AE17" s="165"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="195"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
+      <c r="V17" s="195"/>
+      <c r="W17" s="195"/>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="195"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="195"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="195"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
+      <c r="V18" s="195"/>
+      <c r="W18" s="195"/>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="195"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4556,392 +4667,392 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="156" t="s">
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="156" t="s">
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="157"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="157"/>
-      <c r="Z23" s="157"/>
-      <c r="AA23" s="157"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="156" t="s">
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="185"/>
+      <c r="Z23" s="185"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="158"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="183"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159" t="s">
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="196" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162" t="s">
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="156" t="s">
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="200"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="201"/>
+      <c r="AC24" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="158"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="183"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="158"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="200"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="200"/>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="201"/>
+      <c r="AC25" s="182"/>
+      <c r="AD25" s="185"/>
+      <c r="AE25" s="183"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="158"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="200"/>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="201"/>
+      <c r="AC26" s="182"/>
+      <c r="AD26" s="185"/>
+      <c r="AE26" s="183"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="157"/>
-      <c r="AE27" s="158"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="200"/>
+      <c r="T27" s="200"/>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
+      <c r="Z27" s="200"/>
+      <c r="AA27" s="200"/>
+      <c r="AB27" s="201"/>
+      <c r="AC27" s="182"/>
+      <c r="AD27" s="185"/>
+      <c r="AE27" s="183"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="158"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="200"/>
+      <c r="O28" s="200"/>
+      <c r="P28" s="200"/>
+      <c r="Q28" s="200"/>
+      <c r="R28" s="200"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="200"/>
+      <c r="V28" s="200"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="200"/>
+      <c r="AA28" s="200"/>
+      <c r="AB28" s="201"/>
+      <c r="AC28" s="182"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="183"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="158"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="200"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="200"/>
+      <c r="S29" s="200"/>
+      <c r="T29" s="200"/>
+      <c r="U29" s="200"/>
+      <c r="V29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="182"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="183"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="158"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="200"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="200"/>
+      <c r="N30" s="200"/>
+      <c r="O30" s="200"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="200"/>
+      <c r="S30" s="200"/>
+      <c r="T30" s="200"/>
+      <c r="U30" s="200"/>
+      <c r="V30" s="200"/>
+      <c r="W30" s="200"/>
+      <c r="X30" s="200"/>
+      <c r="Y30" s="200"/>
+      <c r="Z30" s="200"/>
+      <c r="AA30" s="200"/>
+      <c r="AB30" s="201"/>
+      <c r="AC30" s="182"/>
+      <c r="AD30" s="185"/>
+      <c r="AE30" s="183"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="158"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="200"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="200"/>
+      <c r="N31" s="200"/>
+      <c r="O31" s="200"/>
+      <c r="P31" s="200"/>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="200"/>
+      <c r="S31" s="200"/>
+      <c r="T31" s="200"/>
+      <c r="U31" s="200"/>
+      <c r="V31" s="200"/>
+      <c r="W31" s="200"/>
+      <c r="X31" s="200"/>
+      <c r="Y31" s="200"/>
+      <c r="Z31" s="200"/>
+      <c r="AA31" s="200"/>
+      <c r="AB31" s="201"/>
+      <c r="AC31" s="182"/>
+      <c r="AD31" s="185"/>
+      <c r="AE31" s="183"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="158"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="200"/>
+      <c r="V32" s="200"/>
+      <c r="W32" s="200"/>
+      <c r="X32" s="200"/>
+      <c r="Y32" s="200"/>
+      <c r="Z32" s="200"/>
+      <c r="AA32" s="200"/>
+      <c r="AB32" s="201"/>
+      <c r="AC32" s="182"/>
+      <c r="AD32" s="185"/>
+      <c r="AE32" s="183"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="158"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="200"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="200"/>
+      <c r="X33" s="200"/>
+      <c r="Y33" s="200"/>
+      <c r="Z33" s="200"/>
+      <c r="AA33" s="200"/>
+      <c r="AB33" s="201"/>
+      <c r="AC33" s="182"/>
+      <c r="AD33" s="185"/>
+      <c r="AE33" s="183"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4980,6 +5091,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4991,51 +5147,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5059,8 +5170,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -5085,10 +5196,10 @@
       <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="199"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="37" t="s">
         <v>174</v>
       </c>
@@ -5101,10 +5212,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="199"/>
+      <c r="B3" s="203"/>
       <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
@@ -5117,10 +5228,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="199"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="37" t="s">
         <v>178</v>
       </c>
@@ -5133,10 +5244,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="199"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="41" t="s">
         <v>24</v>
       </c>
@@ -5147,10 +5258,10 @@
       <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="199"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="37" t="s">
         <v>54</v>
       </c>
@@ -5191,10 +5302,10 @@
       <c r="D9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="196" t="s">
+      <c r="E9" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="197"/>
+      <c r="F9" s="209"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="76">
@@ -5209,10 +5320,10 @@
       <c r="D10" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="192" t="s">
+      <c r="E10" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="193"/>
+      <c r="F10" s="205"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="76">
@@ -5227,10 +5338,10 @@
       <c r="D11" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="192" t="s">
+      <c r="E11" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="193"/>
+      <c r="F11" s="205"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="76">
@@ -5245,10 +5356,10 @@
       <c r="D12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="192" t="s">
+      <c r="E12" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="193"/>
+      <c r="F12" s="205"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="76">
@@ -5263,10 +5374,10 @@
       <c r="D13" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="192" t="s">
+      <c r="E13" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="193"/>
+      <c r="F13" s="205"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="76">
@@ -5281,34 +5392,44 @@
       <c r="D14" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="192" t="s">
+      <c r="E14" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="193"/>
+      <c r="F14" s="205"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="195"/>
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="258" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="259"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="195"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -5770,11 +5891,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5784,6 +5900,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5903,42 +6024,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -5959,10 +6080,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -5983,10 +6104,10 @@
       <c r="B11" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
         <v>184</v>
       </c>
@@ -6005,10 +6126,10 @@
       <c r="B12" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="85" t="s">
         <v>157</v>
       </c>
@@ -6021,8 +6142,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="201"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -6031,8 +6152,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -6041,8 +6162,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -6051,8 +6172,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -6061,8 +6182,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -6071,8 +6192,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -6081,8 +6202,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -6091,8 +6212,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -6101,8 +6222,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -6111,8 +6232,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -6121,8 +6242,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -6131,8 +6252,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -6141,8 +6262,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -6151,8 +6272,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -6161,8 +6282,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -6171,8 +6292,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -6181,8 +6302,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -6191,8 +6312,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -6224,10 +6345,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -6242,51 +6363,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="212"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="212"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -6319,15 +6440,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="C41" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="207" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="208"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -6335,51 +6456,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="233"/>
-      <c r="E42" s="210"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
+      <c r="C42" s="210"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="212"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="211"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="212"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6411,15 +6532,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="207" t="s">
+      <c r="C49" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="202" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="206"/>
+      <c r="G49" s="239"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -6429,15 +6550,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="235" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="222"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="215" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="216"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="117" t="s">
         <v>85</v>
       </c>
@@ -6445,61 +6566,72 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="212"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -6516,33 +6648,22 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6661,42 +6782,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="228" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -6717,10 +6838,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -6841,8 +6962,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -6851,8 +6972,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -6861,8 +6982,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -6871,8 +6992,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -6881,8 +7002,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -6891,8 +7012,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -6901,8 +7022,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -6911,8 +7032,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -6921,8 +7042,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -6931,8 +7052,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -6941,8 +7062,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -6951,8 +7072,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -6961,8 +7082,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -6971,8 +7092,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -6981,8 +7102,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -7014,10 +7135,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -7032,51 +7153,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="212"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="212"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -7109,15 +7230,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="C41" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="207" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="208"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -7127,15 +7248,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="222"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="237"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="216"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="117" t="s">
         <v>103</v>
       </c>
@@ -7145,15 +7266,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="119"/>
-      <c r="C43" s="234" t="s">
+      <c r="C43" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="234" t="s">
+      <c r="D43" s="245"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="236"/>
+      <c r="G43" s="246"/>
       <c r="H43" s="120" t="s">
         <v>100</v>
       </c>
@@ -7161,31 +7282,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7217,15 +7338,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="207" t="s">
+      <c r="C49" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="202" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="206"/>
+      <c r="G49" s="239"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -7235,15 +7356,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="235" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="222"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="215" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="235" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="216"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="117" t="s">
         <v>153</v>
       </c>
@@ -7251,45 +7372,86 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="212"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
@@ -7303,47 +7465,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7462,42 +7583,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -7518,10 +7639,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -7542,10 +7663,10 @@
       <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="242" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
         <v>185</v>
       </c>
@@ -7564,10 +7685,10 @@
       <c r="B12" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="85" t="s">
         <v>161</v>
       </c>
@@ -7580,8 +7701,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="201"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -7590,8 +7711,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -7600,8 +7721,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -7610,8 +7731,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -7620,8 +7741,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -7630,8 +7751,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -7640,8 +7761,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -7650,8 +7771,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -7660,8 +7781,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -7670,8 +7791,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -7680,8 +7801,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -7690,8 +7811,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -7700,8 +7821,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -7710,8 +7831,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -7720,8 +7841,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -7730,8 +7851,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -7740,8 +7861,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -7750,8 +7871,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -7783,10 +7904,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -7801,51 +7922,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="212"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="212"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -7878,15 +7999,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="C41" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="207" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="208"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -7894,51 +8015,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="233"/>
-      <c r="E42" s="210"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
+      <c r="C42" s="210"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="212"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="211"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="212"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7970,15 +8091,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="207" t="s">
+      <c r="C49" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="202" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="206"/>
+      <c r="G49" s="239"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -7988,15 +8109,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="222"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="215" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="216"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="117" t="s">
         <v>115</v>
       </c>
@@ -8004,63 +8125,73 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="212"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8074,34 +8205,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8220,42 +8341,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -8276,10 +8397,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8300,10 +8421,10 @@
       <c r="B11" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
         <v>187</v>
       </c>
@@ -8322,10 +8443,10 @@
       <c r="B12" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="85" t="s">
         <v>185</v>
       </c>
@@ -8380,8 +8501,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -8390,8 +8511,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -8400,8 +8521,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -8410,8 +8531,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -8420,8 +8541,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -8430,8 +8551,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -8440,8 +8561,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -8450,8 +8571,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -8460,8 +8581,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -8470,8 +8591,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -8480,8 +8601,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -8490,8 +8611,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -8500,8 +8621,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -8510,8 +8631,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -8520,8 +8641,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -8530,8 +8651,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -8563,10 +8684,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -8581,51 +8702,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="212"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="212"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -8658,15 +8779,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="C41" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="207" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="208"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -8676,15 +8797,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="235" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="222"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="237"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="216"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="117" t="s">
         <v>152</v>
       </c>
@@ -8692,41 +8813,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="211"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="212"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8758,15 +8879,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="207" t="s">
+      <c r="C49" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="202" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="206"/>
+      <c r="G49" s="239"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -8776,15 +8897,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="235" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="222"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="215" t="s">
+      <c r="D50" s="237"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="216"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="117" t="s">
         <v>130</v>
       </c>
@@ -8792,61 +8913,73 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="212"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8860,34 +8993,22 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9006,42 +9127,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="228" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -9062,10 +9183,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9086,10 +9207,10 @@
       <c r="B11" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="242" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="205"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
         <v>185</v>
       </c>
@@ -9220,8 +9341,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -9230,8 +9351,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -9240,8 +9361,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -9250,8 +9371,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -9260,8 +9381,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -9270,8 +9391,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -9280,8 +9401,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -9290,8 +9411,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -9300,8 +9421,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -9310,8 +9431,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -9320,8 +9441,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -9330,8 +9451,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -9340,8 +9461,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -9373,10 +9494,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="221"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -9391,51 +9512,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="212"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="212"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="212"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -9468,15 +9589,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="207" t="s">
+      <c r="C41" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="207" t="s">
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="208"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -9486,15 +9607,15 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="235" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="222"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="237"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="235" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="216"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="117" t="s">
         <v>152</v>
       </c>
@@ -9504,15 +9625,15 @@
         <v>2</v>
       </c>
       <c r="B43" s="119"/>
-      <c r="C43" s="234" t="s">
+      <c r="C43" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="234" t="s">
+      <c r="D43" s="245"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="244" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="236"/>
+      <c r="G43" s="246"/>
       <c r="H43" s="120" t="s">
         <v>147</v>
       </c>
@@ -9520,31 +9641,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="212"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="217"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9576,15 +9697,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="207" t="s">
+      <c r="C49" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="202" t="s">
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="206"/>
+      <c r="G49" s="239"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -9592,67 +9713,83 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="98"/>
       <c r="B50" s="99"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="210"/>
-      <c r="F50" s="209"/>
-      <c r="G50" s="210"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="212"/>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="223"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="212"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="212"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="217"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9666,34 +9803,18 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9707,13 +9828,780 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908A6F0A-32B5-5B45-916B-363C79400040}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="151"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="163" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="156"/>
+      <c r="C3" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="164"/>
+      <c r="E3" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="164"/>
+      <c r="G3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="111"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="156"/>
+      <c r="C4" s="163" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="228" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="230"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="228" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="228" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="241"/>
+      <c r="E10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="78">
+        <v>1</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="242" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="243"/>
+      <c r="E11" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="83">
+        <v>2</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="83">
+        <v>3</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="158"/>
+      <c r="E13" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="93"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="223"/>
+      <c r="D33" s="159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="78"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="83"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="83"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="93"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="222"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="221" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="240"/>
+      <c r="H41" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="115">
+        <v>1</v>
+      </c>
+      <c r="B42" s="116"/>
+      <c r="C42" s="235" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="237"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="236"/>
+      <c r="H42" s="117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="118">
+        <v>2</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="244" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="245"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="244" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="246"/>
+      <c r="H43" s="120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="101"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="215"/>
+      <c r="H44" s="103"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="101"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="215"/>
+      <c r="H45" s="103"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="104"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
+      <c r="H46" s="106"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+    </row>
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="238" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="239"/>
+      <c r="H49" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="100"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="103"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="101"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="103"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="101"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="103"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="104"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="234"/>
+      <c r="H54" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -9761,10 +10649,10 @@
       <c r="K2" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="240" t="s">
+      <c r="L2" s="253" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="241"/>
+      <c r="M2" s="254"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="126" t="s">
@@ -9786,8 +10674,8 @@
       <c r="K3" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="240"/>
-      <c r="M3" s="241"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="254"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="122" t="s">
@@ -9807,10 +10695,10 @@
       <c r="K4" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="240" t="s">
+      <c r="L4" s="253" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="241"/>
+      <c r="M4" s="254"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -9886,14 +10774,14 @@
       <c r="D9" s="134"/>
       <c r="E9" s="134"/>
       <c r="F9" s="135"/>
-      <c r="G9" s="242" t="s">
+      <c r="G9" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="244"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
       <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -9925,15 +10813,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="131"/>
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="247" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="237" t="s">
+      <c r="C11" s="250" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="239"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="252"/>
       <c r="G11" s="139"/>
       <c r="H11" s="139"/>
       <c r="I11" s="139" t="s">
@@ -9946,13 +10834,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="131"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="237" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="250" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="239"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="252"/>
       <c r="G12" s="139"/>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
@@ -9967,13 +10855,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="131"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="237" t="s">
+      <c r="B13" s="248"/>
+      <c r="C13" s="250" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="239"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="252"/>
       <c r="G13" s="139"/>
       <c r="H13" s="139"/>
       <c r="I13" s="139"/>
@@ -9986,13 +10874,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="131"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="237" t="s">
+      <c r="B14" s="248"/>
+      <c r="C14" s="250" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="239"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="139"/>
       <c r="H14" s="139"/>
       <c r="I14" s="139"/>
@@ -10005,13 +10893,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="131"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="237" t="s">
+      <c r="B15" s="248"/>
+      <c r="C15" s="250" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="239"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="252"/>
       <c r="G15" s="139"/>
       <c r="H15" s="139"/>
       <c r="I15" s="139"/>
@@ -10024,13 +10912,13 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="131"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="237" t="s">
+      <c r="B16" s="248"/>
+      <c r="C16" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="239"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="252"/>
       <c r="G16" s="139" t="s">
         <v>209</v>
       </c>
@@ -10047,13 +10935,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="131"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="237" t="s">
+      <c r="B17" s="248"/>
+      <c r="C17" s="250" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="239"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="139"/>
       <c r="H17" s="139"/>
       <c r="I17" s="139"/>
@@ -10066,13 +10954,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="131"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="237" t="s">
+      <c r="B18" s="248"/>
+      <c r="C18" s="250" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="239"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="252"/>
       <c r="G18" s="139"/>
       <c r="H18" s="139"/>
       <c r="I18" s="139"/>
@@ -10085,13 +10973,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="237" t="s">
+      <c r="B19" s="248"/>
+      <c r="C19" s="250" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="239"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="252"/>
       <c r="G19" s="139"/>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -10104,13 +10992,13 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="131"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="237" t="s">
+      <c r="B20" s="248"/>
+      <c r="C20" s="250" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="239"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="252"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
       <c r="I20" s="139"/>
@@ -10123,7 +11011,7 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="131"/>
-      <c r="B21" s="246"/>
+      <c r="B21" s="248"/>
       <c r="C21" s="140" t="s">
         <v>205</v>
       </c>
@@ -10142,7 +11030,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="131"/>
-      <c r="B22" s="246"/>
+      <c r="B22" s="248"/>
       <c r="C22" s="140" t="s">
         <v>206</v>
       </c>
@@ -10161,7 +11049,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="131"/>
-      <c r="B23" s="246"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="140" t="s">
         <v>207</v>
       </c>
@@ -10180,7 +11068,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="131"/>
-      <c r="B24" s="246"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="140" t="s">
         <v>208</v>
       </c>
@@ -10199,7 +11087,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="131"/>
-      <c r="B25" s="246"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="140"/>
       <c r="D25" s="153"/>
       <c r="E25" s="153"/>
@@ -10214,7 +11102,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="131"/>
-      <c r="B26" s="246"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="140"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -10229,7 +11117,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="131"/>
-      <c r="B27" s="246"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="140"/>
       <c r="D27" s="153"/>
       <c r="E27" s="153"/>
@@ -10244,7 +11132,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="131"/>
-      <c r="B28" s="246"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="140"/>
       <c r="D28" s="153"/>
       <c r="E28" s="153"/>
@@ -10259,7 +11147,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="131"/>
-      <c r="B29" s="246"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="140"/>
       <c r="D29" s="153"/>
       <c r="E29" s="153"/>
@@ -10274,7 +11162,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="131"/>
-      <c r="B30" s="246"/>
+      <c r="B30" s="248"/>
       <c r="C30" s="140"/>
       <c r="D30" s="153"/>
       <c r="E30" s="153"/>
@@ -10289,11 +11177,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="239"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="252"/>
       <c r="G31" s="139"/>
       <c r="H31" s="139"/>
       <c r="I31" s="139"/>
@@ -10304,11 +11192,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="131"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="239"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="250"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="252"/>
       <c r="G32" s="139"/>
       <c r="H32" s="139"/>
       <c r="I32" s="139"/>
@@ -10319,11 +11207,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="131"/>
-      <c r="B33" s="246"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="239"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="252"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
       <c r="I33" s="139"/>
@@ -10334,11 +11222,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="131"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="239"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="252"/>
       <c r="G34" s="139"/>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
@@ -10349,11 +11237,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="247"/>
-      <c r="C35" s="237"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="239"/>
+      <c r="B35" s="249"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="251"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="252"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
       <c r="I35" s="139"/>
@@ -10394,6 +11282,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="B11:B35"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -10410,10 +11302,6 @@
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/日誌管理システム_データベース設計書.xlsx
+++ b/設計書/日誌管理システム_データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/web/diary1801204/設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F781B-771F-3745-A47C-D98207B36CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BD969-8422-4A4B-96CB-E906728E9084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="224">
   <si>
     <t>No</t>
   </si>
@@ -512,10 +512,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -589,10 +585,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -985,10 +977,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新規作成</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -1020,14 +1008,6 @@
   </si>
   <si>
     <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xxxx/xx/xx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1139,10 +1119,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2018/xx/xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>v1.0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1164,10 +1140,6 @@
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20xx/xx/xx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1387,6 +1359,49 @@
     <t>学生(student)</t>
     <rPh sb="0" eb="1">
       <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#* クラスこコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#*　登録日</t>
+    <rPh sb="3" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*　　学籍番号</t>
+    <rPh sb="3" eb="7">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原田遼汰</t>
+    <rPh sb="0" eb="4">
+      <t>ハラダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規テーブル追加</t>
+    <rPh sb="0" eb="1">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原田遼汰</t>
+    <rPh sb="0" eb="1">
+      <t>ハラダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1582,7 +1597,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1592,6 +1607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2396,7 +2417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2841,6 +2862,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2889,18 +2952,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,33 +2982,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2962,6 +2989,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2973,106 +3006,112 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,11 +3156,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3215,7 +3251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3224,6 +3260,59 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73CE6E6-8328-364F-88A3-786C53414183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4025900" y="10782300"/>
+          <a:ext cx="152400" cy="673101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3556,7 +3645,7 @@
   <dimension ref="A1:FT34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F26" sqref="F26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3991,21 +4080,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="182" t="s">
+      <c r="U3" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="183"/>
-      <c r="W3" s="184" t="s">
-        <v>164</v>
-      </c>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="183"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="196">
+        <v>43759</v>
+      </c>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="172"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4118,20 +4207,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="169"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="183"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -4149,82 +4238,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="176" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="178"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="166" t="s">
+      <c r="W8" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166" t="s">
+      <c r="X8" s="180"/>
+      <c r="Y8" s="180"/>
+      <c r="Z8" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166" t="s">
+      <c r="AA8" s="180"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
+      <c r="AD8" s="180"/>
+      <c r="AE8" s="180"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="186" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="199"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD9" s="198"/>
+      <c r="AE9" s="199"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4250,15 +4339,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="189"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="189"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="189"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
+      <c r="W10" s="200"/>
+      <c r="X10" s="201"/>
+      <c r="Y10" s="202"/>
+      <c r="Z10" s="200"/>
+      <c r="AA10" s="201"/>
+      <c r="AB10" s="202"/>
+      <c r="AC10" s="200"/>
+      <c r="AD10" s="201"/>
+      <c r="AE10" s="202"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4284,15 +4373,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="189"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="189"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="189"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="191"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="201"/>
+      <c r="Y11" s="202"/>
+      <c r="Z11" s="200"/>
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="200"/>
+      <c r="AD11" s="201"/>
+      <c r="AE11" s="202"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4318,15 +4407,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="193"/>
-      <c r="AE12" s="194"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="205"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4425,106 +4514,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="195"/>
-      <c r="N16" s="195"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="195"/>
+      <c r="B16" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="179"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="179"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="179"/>
+      <c r="V16" s="179"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
+      <c r="AA16" s="179"/>
+      <c r="AB16" s="179"/>
+      <c r="AC16" s="179"/>
+      <c r="AD16" s="179"/>
+      <c r="AE16" s="179"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="195"/>
-      <c r="P17" s="195"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="195"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
+      <c r="AA17" s="179"/>
+      <c r="AB17" s="179"/>
+      <c r="AC17" s="179"/>
+      <c r="AD17" s="179"/>
+      <c r="AE17" s="179"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="195"/>
-      <c r="M18" s="195"/>
-      <c r="N18" s="195"/>
-      <c r="O18" s="195"/>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="195"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="179"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4667,392 +4756,400 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="182" t="s">
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="182" t="s">
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="182" t="s">
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="171"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="171"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="171"/>
+      <c r="AB23" s="172"/>
+      <c r="AC23" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="183"/>
+      <c r="AD23" s="171"/>
+      <c r="AE23" s="172"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="182" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="196" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="200"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="200"/>
-      <c r="Q24" s="200"/>
-      <c r="R24" s="200"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
-      <c r="X24" s="200"/>
-      <c r="Y24" s="200"/>
-      <c r="Z24" s="200"/>
-      <c r="AA24" s="200"/>
-      <c r="AB24" s="201"/>
-      <c r="AC24" s="182" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="183"/>
+      <c r="B24" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="173">
+        <v>43759</v>
+      </c>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="172"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="200"/>
-      <c r="S25" s="200"/>
-      <c r="T25" s="200"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="200"/>
-      <c r="W25" s="200"/>
-      <c r="X25" s="200"/>
-      <c r="Y25" s="200"/>
-      <c r="Z25" s="200"/>
-      <c r="AA25" s="200"/>
-      <c r="AB25" s="201"/>
-      <c r="AC25" s="182"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="183"/>
+      <c r="B25" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="173">
+        <v>43835</v>
+      </c>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="201"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="183"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="172"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="200"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="200"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="200"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="200"/>
-      <c r="Z27" s="200"/>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="201"/>
-      <c r="AC27" s="182"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="183"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="170"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="172"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="200"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="201"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="183"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="170"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="172"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="200"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="200"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="200"/>
-      <c r="S29" s="200"/>
-      <c r="T29" s="200"/>
-      <c r="U29" s="200"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
-      <c r="Z29" s="200"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="183"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="170"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="172"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="200"/>
-      <c r="N30" s="200"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="183"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="170"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="172"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="200"/>
-      <c r="N31" s="200"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="200"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="200"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="200"/>
-      <c r="Z31" s="200"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="201"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="183"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="170"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="172"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="200"/>
-      <c r="N32" s="200"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="200"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="200"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="200"/>
-      <c r="U32" s="200"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="200"/>
-      <c r="Z32" s="200"/>
-      <c r="AA32" s="200"/>
-      <c r="AB32" s="201"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="183"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="170"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="172"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="M33" s="200"/>
-      <c r="N33" s="200"/>
-      <c r="O33" s="200"/>
-      <c r="P33" s="200"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="200"/>
-      <c r="V33" s="200"/>
-      <c r="W33" s="200"/>
-      <c r="X33" s="200"/>
-      <c r="Y33" s="200"/>
-      <c r="Z33" s="200"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="201"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="183"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="170"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="172"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5091,51 +5188,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5147,6 +5199,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5170,8 +5267,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -5187,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="146" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -5196,26 +5293,26 @@
       <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="37" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="203"/>
+      <c r="B3" s="215"/>
       <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
@@ -5223,31 +5320,31 @@
       <c r="E3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="107" t="s">
-        <v>182</v>
+      <c r="F3" s="107">
+        <v>43759</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="203"/>
+      <c r="B4" s="215"/>
       <c r="C4" s="37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="203"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="41" t="s">
         <v>24</v>
       </c>
@@ -5255,13 +5352,15 @@
       <c r="E5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="109"/>
+      <c r="F5" s="109" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="203"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="37" t="s">
         <v>54</v>
       </c>
@@ -5269,7 +5368,9 @@
       <c r="E6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="107">
+        <v>43835</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="22"/>
@@ -5302,10 +5403,10 @@
       <c r="D9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="208" t="s">
+      <c r="E9" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="209"/>
+      <c r="F9" s="213"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="76">
@@ -5315,15 +5416,15 @@
         <v>55</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="205"/>
+      <c r="F10" s="207"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="76">
@@ -5338,10 +5439,10 @@
       <c r="D11" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="204" t="s">
+      <c r="E11" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="205"/>
+      <c r="F11" s="207"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="76">
@@ -5356,10 +5457,10 @@
       <c r="D12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="204" t="s">
+      <c r="E12" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="205"/>
+      <c r="F12" s="207"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="76">
@@ -5374,10 +5475,10 @@
       <c r="D13" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="204" t="s">
+      <c r="E13" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="205"/>
+      <c r="F13" s="207"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="76">
@@ -5392,44 +5493,44 @@
       <c r="D14" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="205"/>
+      <c r="F14" s="207"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="258" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="259"/>
+        <v>208</v>
+      </c>
+      <c r="E15" s="208" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="209"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -5692,7 +5793,9 @@
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="168" t="s">
+        <v>187</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
@@ -5700,7 +5803,9 @@
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="166" t="s">
+        <v>217</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
@@ -5708,7 +5813,9 @@
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="166" t="s">
+        <v>218</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
@@ -5716,7 +5823,9 @@
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="167" t="s">
+        <v>219</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
@@ -5891,6 +6000,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5900,11 +6014,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5926,7 +6035,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5941,7 +6050,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -5964,13 +6073,13 @@
         <v>25</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43759</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -5985,7 +6094,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -5997,7 +6108,7 @@
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="53"/>
@@ -6006,7 +6117,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -6024,42 +6135,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
+      <c r="C6" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -6080,10 +6191,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -6102,21 +6213,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="242" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="243"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="221"/>
       <c r="E11" s="80" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6124,17 +6235,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="231" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="232"/>
+        <v>76</v>
+      </c>
+      <c r="C12" s="216" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="217"/>
       <c r="E12" s="85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="87"/>
@@ -6142,8 +6253,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="232"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -6152,8 +6263,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -6162,8 +6273,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="232"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -6172,8 +6283,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -6182,8 +6293,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -6192,8 +6303,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -6202,8 +6313,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -6212,8 +6323,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -6222,8 +6333,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -6232,8 +6343,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -6242,8 +6353,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -6252,8 +6363,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -6262,8 +6373,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -6272,8 +6383,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -6282,8 +6393,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -6292,8 +6403,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -6302,8 +6413,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -6312,8 +6423,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -6345,10 +6456,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -6363,51 +6474,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -6440,15 +6551,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -6456,51 +6567,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="210"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="212"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="226"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="215"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6532,15 +6643,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -6550,72 +6661,93 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="235" t="s">
+      <c r="C50" s="231" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="238"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="235" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="117" t="s">
         <v>84</v>
-      </c>
-      <c r="G50" s="236"/>
-      <c r="H50" s="117" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -6632,38 +6764,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6684,7 +6795,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6699,7 +6810,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -6721,14 +6832,14 @@
       <c r="E2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>86</v>
+      <c r="F2" s="169" t="s">
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43759</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -6743,7 +6854,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="169" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -6755,7 +6868,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="74" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="75"/>
@@ -6764,7 +6877,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -6782,42 +6895,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="C6" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -6838,10 +6951,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -6860,21 +6973,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="112" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6882,21 +6995,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -6904,17 +7017,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="112" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>93</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="87"/>
@@ -6924,14 +7037,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="113"/>
       <c r="E14" s="85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F14" s="85"/>
       <c r="G14" s="91"/>
@@ -6942,28 +7055,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="113"/>
       <c r="E15" s="90" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="92" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -6972,8 +7085,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -6982,8 +7095,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -6992,8 +7105,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -7002,8 +7115,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -7012,8 +7125,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -7022,8 +7135,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -7032,8 +7145,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -7042,8 +7155,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -7052,8 +7165,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -7062,8 +7175,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -7072,8 +7185,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -7082,8 +7195,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -7092,8 +7205,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -7102,8 +7215,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -7135,10 +7248,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -7153,51 +7266,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -7230,15 +7343,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -7248,17 +7361,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="235" t="s">
+      <c r="C42" s="231" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="238"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="231" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="232"/>
+      <c r="H42" s="117" t="s">
         <v>101</v>
-      </c>
-      <c r="D42" s="237"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="235" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="236"/>
-      <c r="H42" s="117" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7266,47 +7379,47 @@
         <v>2</v>
       </c>
       <c r="B43" s="119"/>
-      <c r="C43" s="244" t="s">
+      <c r="C43" s="250" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="251"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="250" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="252"/>
+      <c r="H43" s="120" t="s">
         <v>98</v>
-      </c>
-      <c r="D43" s="245"/>
-      <c r="E43" s="246"/>
-      <c r="F43" s="244" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="246"/>
-      <c r="H43" s="120" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7338,15 +7451,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -7356,89 +7469,74 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="235" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="235" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="236"/>
+      <c r="C50" s="231" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="238"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="231" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="232"/>
       <c r="H50" s="117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7452,19 +7550,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7485,7 +7598,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7500,7 +7613,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -7522,14 +7635,14 @@
       <c r="E2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>86</v>
+      <c r="F2" s="169" t="s">
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43759</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -7544,7 +7657,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="169" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -7556,7 +7671,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="74" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="75"/>
@@ -7565,7 +7680,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -7583,42 +7698,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="C6" s="240" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -7639,10 +7754,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -7661,21 +7776,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="D11" s="221"/>
+      <c r="E11" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="243"/>
-      <c r="E11" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>111</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -7683,17 +7798,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="231" t="s">
+      <c r="D12" s="217"/>
+      <c r="E12" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="85" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="232"/>
-      <c r="E12" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>112</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="87"/>
@@ -7701,8 +7816,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="84"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="232"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -7711,8 +7826,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -7721,8 +7836,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="232"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -7731,8 +7846,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -7741,8 +7856,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -7751,8 +7866,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -7761,8 +7876,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -7771,8 +7886,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -7781,8 +7896,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -7791,8 +7906,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -7801,8 +7916,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -7811,8 +7926,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -7821,8 +7936,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -7831,8 +7946,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -7841,8 +7956,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -7851,8 +7966,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -7861,8 +7976,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -7871,8 +7986,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -7904,10 +8019,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -7922,51 +8037,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -7999,15 +8114,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -8015,51 +8130,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="98"/>
       <c r="B42" s="99"/>
-      <c r="C42" s="210"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="212"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="226"/>
       <c r="H42" s="100"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="215"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8091,15 +8206,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -8109,89 +8224,79 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="235" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="235" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="236"/>
+      <c r="C50" s="231" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="238"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="232"/>
       <c r="H50" s="117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8205,24 +8310,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8243,7 +8358,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8258,7 +8373,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -8280,14 +8395,14 @@
       <c r="E2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>86</v>
+      <c r="F2" s="169" t="s">
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43759</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -8302,7 +8417,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="169" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -8314,7 +8431,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="74" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="75"/>
@@ -8323,7 +8440,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -8341,42 +8458,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="C6" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -8397,10 +8514,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8419,21 +8536,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="242" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="243"/>
+        <v>118</v>
+      </c>
+      <c r="C11" s="220" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="221"/>
       <c r="E11" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -8441,21 +8558,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="231" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="217"/>
       <c r="E12" s="85" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -8463,17 +8580,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="112" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="87"/>
@@ -8483,17 +8600,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="113"/>
       <c r="E14" s="90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="92"/>
@@ -8501,8 +8618,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="88"/>
       <c r="B15" s="89"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="232"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="90"/>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -8511,8 +8628,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -8521,8 +8638,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -8531,8 +8648,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -8541,8 +8658,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -8551,8 +8668,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -8561,8 +8678,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -8571,8 +8688,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -8581,8 +8698,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -8591,8 +8708,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -8601,8 +8718,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -8611,8 +8728,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -8621,8 +8738,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -8631,8 +8748,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -8641,8 +8758,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -8651,8 +8768,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -8684,10 +8801,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -8702,51 +8819,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -8779,15 +8896,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -8797,57 +8914,57 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="235" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="237"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="235" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="236"/>
+      <c r="C42" s="231" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="238"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="232"/>
       <c r="H42" s="117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="101"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="215"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8879,15 +8996,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -8897,89 +9014,77 @@
         <v>1</v>
       </c>
       <c r="B50" s="116"/>
-      <c r="C50" s="235" t="s">
+      <c r="C50" s="231" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="238"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="232"/>
+      <c r="H50" s="117" t="s">
         <v>128</v>
-      </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="235" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="236"/>
-      <c r="H50" s="117" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -8993,22 +9098,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9029,7 +9146,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9044,7 +9161,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -9066,14 +9183,14 @@
       <c r="E2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>86</v>
+      <c r="F2" s="169" t="s">
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43759</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -9088,7 +9205,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="169" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -9100,7 +9219,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="74" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="75"/>
@@ -9109,7 +9228,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -9127,42 +9246,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="C6" s="240" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -9183,10 +9302,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -9205,21 +9324,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="242" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="221"/>
       <c r="E11" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -9227,21 +9346,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -9249,21 +9368,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="155"/>
       <c r="E13" s="90" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -9271,14 +9390,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="155"/>
       <c r="E14" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -9289,14 +9408,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="155"/>
       <c r="E15" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
@@ -9307,14 +9426,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="155"/>
       <c r="E16" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="91"/>
@@ -9325,14 +9444,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="155"/>
       <c r="E17" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" s="90"/>
       <c r="G17" s="91"/>
@@ -9341,8 +9460,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -9351,8 +9470,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -9361,8 +9480,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -9371,8 +9490,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -9381,8 +9500,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -9391,8 +9510,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -9401,8 +9520,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -9411,8 +9530,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -9421,8 +9540,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -9431,8 +9550,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -9441,8 +9560,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -9451,8 +9570,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -9461,8 +9580,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="94"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -9494,10 +9613,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -9512,51 +9631,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -9589,15 +9708,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -9607,17 +9726,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="235" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="237"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="235" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="236"/>
+      <c r="C42" s="231" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="238"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="231" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="232"/>
       <c r="H42" s="117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -9625,47 +9744,47 @@
         <v>2</v>
       </c>
       <c r="B43" s="119"/>
-      <c r="C43" s="244" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="245"/>
-      <c r="E43" s="246"/>
-      <c r="F43" s="244" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="246"/>
+      <c r="C43" s="250" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="251"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="250" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="252"/>
       <c r="H43" s="120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="105"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9697,15 +9816,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -9713,83 +9832,67 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="98"/>
       <c r="B50" s="99"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="249"/>
+      <c r="E50" s="226"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="226"/>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -9803,18 +9906,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9834,8 +9953,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9850,7 +9969,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="149" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -9872,14 +9991,14 @@
       <c r="E2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="164" t="s">
-        <v>72</v>
+      <c r="F2" s="169" t="s">
+        <v>220</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>182</v>
+      <c r="H2" s="110">
+        <v>43835</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -9894,7 +10013,9 @@
       <c r="E3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="164"/>
+      <c r="F3" s="169" t="s">
+        <v>223</v>
+      </c>
       <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
@@ -9906,7 +10027,7 @@
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="163" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="163"/>
       <c r="E4" s="164"/>
@@ -9915,7 +10036,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
@@ -9933,42 +10054,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="228" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="C6" s="240" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="156" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="228" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="230"/>
+      <c r="C7" s="240" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="156" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="228" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="C8" s="240" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -9989,10 +10110,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="219"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -10011,21 +10132,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="242" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="221"/>
       <c r="E11" s="80" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -10033,21 +10154,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C12" s="157" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="158"/>
       <c r="E12" s="80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="92" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -10055,17 +10176,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="90" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="92"/>
@@ -10113,8 +10234,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="89"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
       <c r="G18" s="91"/>
@@ -10123,8 +10244,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90"/>
       <c r="G19" s="91"/>
@@ -10133,8 +10254,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="91"/>
@@ -10143,8 +10264,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="91"/>
@@ -10153,8 +10274,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="91"/>
@@ -10163,8 +10284,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -10173,8 +10294,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="91"/>
@@ -10183,8 +10304,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="88"/>
       <c r="B25" s="89"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="91"/>
@@ -10193,8 +10314,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="88"/>
       <c r="B26" s="89"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="91"/>
@@ -10203,8 +10324,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="91"/>
@@ -10213,8 +10334,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
@@ -10223,8 +10344,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -10233,8 +10354,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="93"/>
       <c r="B30" s="165"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
       <c r="G30" s="96"/>
@@ -10266,10 +10387,10 @@
       <c r="A33" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="159" t="s">
         <v>9</v>
       </c>
@@ -10284,51 +10405,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="78"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="83"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="86"/>
       <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="228"/>
       <c r="G36" s="86"/>
       <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="228"/>
       <c r="G37" s="86"/>
       <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="218"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="96"/>
       <c r="H38" s="97"/>
     </row>
@@ -10361,15 +10482,15 @@
       <c r="B41" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C41" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="221" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="240"/>
+      <c r="G41" s="224"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -10379,17 +10500,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="116"/>
-      <c r="C42" s="235" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="237"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="235" t="s">
-        <v>223</v>
-      </c>
-      <c r="G42" s="236"/>
+      <c r="C42" s="231" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="238"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="231" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="232"/>
       <c r="H42" s="117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -10397,47 +10518,47 @@
         <v>2</v>
       </c>
       <c r="B43" s="119"/>
-      <c r="C43" s="244" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="245"/>
-      <c r="E43" s="246"/>
-      <c r="F43" s="244" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="246"/>
+      <c r="C43" s="250" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="251"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="250" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="252"/>
       <c r="H43" s="120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="101"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="215"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="101"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="215"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="104"/>
       <c r="B46" s="160"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="230"/>
       <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10469,15 +10590,15 @@
       <c r="B49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="238" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="222"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -10485,55 +10606,98 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="98"/>
       <c r="B50" s="99"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="212"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="249"/>
+      <c r="E50" s="226"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="226"/>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="101"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="215"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="101"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="215"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="101"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="215"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="104"/>
       <c r="B54" s="160"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="234"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="230"/>
       <c r="H54" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -10544,49 +10708,6 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10601,8 +10722,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10614,7 +10735,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" s="152" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -10634,7 +10755,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -10644,15 +10765,17 @@
       <c r="H2" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="124"/>
+      <c r="I2" s="124" t="s">
+        <v>220</v>
+      </c>
       <c r="J2" s="124"/>
       <c r="K2" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="253" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="254"/>
+      <c r="L2" s="264">
+        <v>43759</v>
+      </c>
+      <c r="M2" s="260"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="126" t="s">
@@ -10669,20 +10792,22 @@
       <c r="H3" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="124"/>
+      <c r="I3" s="124" t="s">
+        <v>223</v>
+      </c>
       <c r="J3" s="124"/>
       <c r="K3" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="253"/>
-      <c r="M3" s="254"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="260"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="122" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C4" s="124"/>
       <c r="D4" s="124"/>
@@ -10695,10 +10820,10 @@
       <c r="K4" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="253" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="254"/>
+      <c r="L4" s="259" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="260"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -10716,10 +10841,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="127" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -10738,7 +10863,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10774,14 +10899,14 @@
       <c r="D9" s="134"/>
       <c r="E9" s="134"/>
       <c r="F9" s="135"/>
-      <c r="G9" s="255" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="257"/>
+      <c r="G9" s="261" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
       <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -10792,40 +10917,40 @@
       <c r="E10" s="136"/>
       <c r="F10" s="137"/>
       <c r="G10" s="138" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H10" s="139" t="s">
         <v>56</v>
       </c>
       <c r="I10" s="139" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J10" s="139" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K10" s="139" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L10" s="139" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M10" s="133"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="131"/>
-      <c r="B11" s="247" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="250" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="252"/>
+      <c r="B11" s="253" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="256" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="257"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="258"/>
       <c r="G11" s="139"/>
       <c r="H11" s="139"/>
       <c r="I11" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J11" s="139"/>
       <c r="K11" s="139"/>
@@ -10834,100 +10959,100 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="131"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="250" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="252"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="256" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="258"/>
       <c r="G12" s="139"/>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
       <c r="J12" s="139"/>
       <c r="K12" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L12" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M12" s="133"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="131"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="250" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="252"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="256" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="258"/>
       <c r="G13" s="139"/>
       <c r="H13" s="139"/>
       <c r="I13" s="139"/>
       <c r="J13" s="139"/>
       <c r="K13" s="139" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L13" s="139"/>
       <c r="M13" s="133"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="131"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="250" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="252"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="256" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="257"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="258"/>
       <c r="G14" s="139"/>
       <c r="H14" s="139"/>
       <c r="I14" s="139"/>
       <c r="J14" s="139"/>
       <c r="K14" s="139" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L14" s="139"/>
       <c r="M14" s="133"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="131"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="250" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="252"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="256" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="258"/>
       <c r="G15" s="139"/>
       <c r="H15" s="139"/>
       <c r="I15" s="139"/>
       <c r="J15" s="139"/>
       <c r="K15" s="139" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="133"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="131"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="250" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="251"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="252"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="256" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="257"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="258"/>
       <c r="G16" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I16" s="139"/>
       <c r="J16" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K16" s="139"/>
       <c r="L16" s="139"/>
@@ -10935,85 +11060,85 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="131"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="250" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="252"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="256" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="257"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="258"/>
       <c r="G17" s="139"/>
       <c r="H17" s="139"/>
       <c r="I17" s="139"/>
       <c r="J17" s="139"/>
       <c r="K17" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L17" s="139"/>
       <c r="M17" s="133"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="131"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="250" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="256" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="258"/>
       <c r="G18" s="139"/>
       <c r="H18" s="139"/>
       <c r="I18" s="139"/>
       <c r="J18" s="139"/>
       <c r="K18" s="139" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L18" s="139"/>
       <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="250" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="252"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="256" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="257"/>
+      <c r="E19" s="257"/>
+      <c r="F19" s="258"/>
       <c r="G19" s="139"/>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
       <c r="J19" s="139"/>
       <c r="K19" s="139" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="133"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="131"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="250" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="252"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="256" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="257"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="258"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
       <c r="I20" s="139"/>
       <c r="J20" s="139"/>
       <c r="K20" s="139"/>
       <c r="L20" s="139" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M20" s="133"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="131"/>
-      <c r="B21" s="248"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="140" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D21" s="153"/>
       <c r="E21" s="153"/>
@@ -11024,15 +11149,15 @@
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
       <c r="L21" s="139" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M21" s="133"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="131"/>
-      <c r="B22" s="248"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="140" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D22" s="153"/>
       <c r="E22" s="153"/>
@@ -11042,16 +11167,16 @@
       <c r="I22" s="139"/>
       <c r="J22" s="139"/>
       <c r="K22" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L22" s="139"/>
       <c r="M22" s="133"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="131"/>
-      <c r="B23" s="248"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="140" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D23" s="153"/>
       <c r="E23" s="153"/>
@@ -11061,16 +11186,16 @@
       <c r="I23" s="139"/>
       <c r="J23" s="139"/>
       <c r="K23" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L23" s="139"/>
       <c r="M23" s="133"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="131"/>
-      <c r="B24" s="248"/>
+      <c r="B24" s="254"/>
       <c r="C24" s="140" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D24" s="153"/>
       <c r="E24" s="153"/>
@@ -11080,14 +11205,14 @@
       <c r="I24" s="139"/>
       <c r="J24" s="139"/>
       <c r="K24" s="139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L24" s="139"/>
       <c r="M24" s="133"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="131"/>
-      <c r="B25" s="248"/>
+      <c r="B25" s="254"/>
       <c r="C25" s="140"/>
       <c r="D25" s="153"/>
       <c r="E25" s="153"/>
@@ -11102,7 +11227,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="131"/>
-      <c r="B26" s="248"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="140"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -11117,7 +11242,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="131"/>
-      <c r="B27" s="248"/>
+      <c r="B27" s="254"/>
       <c r="C27" s="140"/>
       <c r="D27" s="153"/>
       <c r="E27" s="153"/>
@@ -11132,7 +11257,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="131"/>
-      <c r="B28" s="248"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="140"/>
       <c r="D28" s="153"/>
       <c r="E28" s="153"/>
@@ -11147,7 +11272,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="131"/>
-      <c r="B29" s="248"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="140"/>
       <c r="D29" s="153"/>
       <c r="E29" s="153"/>
@@ -11162,7 +11287,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="131"/>
-      <c r="B30" s="248"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="140"/>
       <c r="D30" s="153"/>
       <c r="E30" s="153"/>
@@ -11177,11 +11302,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="252"/>
+      <c r="B31" s="254"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="258"/>
       <c r="G31" s="139"/>
       <c r="H31" s="139"/>
       <c r="I31" s="139"/>
@@ -11192,11 +11317,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="131"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="252"/>
+      <c r="B32" s="254"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="258"/>
       <c r="G32" s="139"/>
       <c r="H32" s="139"/>
       <c r="I32" s="139"/>
@@ -11207,11 +11332,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="131"/>
-      <c r="B33" s="248"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="252"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="258"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
       <c r="I33" s="139"/>
@@ -11222,11 +11347,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="131"/>
-      <c r="B34" s="248"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="251"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="252"/>
+      <c r="B34" s="254"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="257"/>
+      <c r="F34" s="258"/>
       <c r="G34" s="139"/>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
@@ -11237,11 +11362,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="249"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="251"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="252"/>
+      <c r="B35" s="255"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="257"/>
+      <c r="F35" s="258"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
       <c r="I35" s="139"/>
